--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Source:</t>
   </si>
@@ -133,12 +138,21 @@
   </si>
   <si>
     <t>offshore wind</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,11 +190,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,6 +207,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -238,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,7 +293,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,7 +651,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -641,7 +661,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -748,6 +768,33 @@
       </c>
       <c r="B14">
         <f>B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
         <v>0</v>
       </c>
     </row>
@@ -761,7 +808,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -771,7 +818,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -878,6 +925,33 @@
       </c>
       <c r="B14">
         <f>B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\elec\BPaFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B94302-A3D8-4F2D-83B8-A45A6DF87D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -152,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,6 +304,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -326,6 +356,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,7 +548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -647,13 +694,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -776,8 +825,7 @@
         <v>39</v>
       </c>
       <c r="B15">
-        <f>B11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,13 +852,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -933,8 +983,7 @@
         <v>39</v>
       </c>
       <c r="B15">
-        <f>B11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\elec\BPaFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B94302-A3D8-4F2D-83B8-A45A6DF87D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -165,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,23 +291,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -356,23 +326,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -694,15 +647,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -825,7 +776,8 @@
         <v>39</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <f>B11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,15 +804,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -983,7 +933,8 @@
         <v>39</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <f>B11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
